--- a/biology/Médecine/Pince_mésentérique/Pince_mésentérique.xlsx
+++ b/biology/Médecine/Pince_mésentérique/Pince_mésentérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pince_m%C3%A9sent%C3%A9rique</t>
+          <t>Pince_mésentérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pince mésentérique est une structure anatomique périvasculaire abdominale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pince_m%C3%A9sent%C3%A9rique</t>
+          <t>Pince_mésentérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>La pince mésentérique physiologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On désigne sous le nom de « phénomène de la pince mésentérique » le passage de la veine rénale gauche dans le compas formé par l'aorte et l'artère mésentérique supérieure.
 Il en résulte une variation physiologique des flux veineux en amont et en aval du compas, dont le rapport mesuré par échographie Doppler ne doit pas dépasser 5.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pince_m%C3%A9sent%C3%A9rique</t>
+          <t>Pince_mésentérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>La pince mésentérique pathologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque c'est le cas, ce qui est rare, la pince mésentérique devient symptomatique.
 On se trouve dès lors en présence d'un syndrome de la pince mésentérique, caractérisé par :
